--- a/data/trans_orig/P79_n_R3-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R3-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>19204</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10942</v>
+        <v>11275</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30908</v>
+        <v>32615</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03850425691013771</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02193862908850306</v>
+        <v>0.02260737017724609</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06197287824365418</v>
+        <v>0.06539398968920757</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -762,19 +762,19 @@
         <v>16059</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9666</v>
+        <v>9780</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28453</v>
+        <v>28550</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02575284375838017</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01550023304555897</v>
+        <v>0.01568423757730183</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04562902370573934</v>
+        <v>0.04578402145046713</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -783,19 +783,19 @@
         <v>35263</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23899</v>
+        <v>23595</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50761</v>
+        <v>49289</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03141935027687737</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02129402130481712</v>
+        <v>0.02102374250117689</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04522823070876733</v>
+        <v>0.04391679947005995</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>66585</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51530</v>
+        <v>51699</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>85307</v>
+        <v>86022</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.133506175195662</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1033197763039925</v>
+        <v>0.1036599905767706</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1710453519233733</v>
+        <v>0.1724784574104131</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>92</v>
@@ -833,19 +833,19 @@
         <v>73861</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59816</v>
+        <v>60345</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>93437</v>
+        <v>91633</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1184474384168357</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09592387850097803</v>
+        <v>0.09677227624551163</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1498388902070122</v>
+        <v>0.1469468963351626</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>153</v>
@@ -854,19 +854,19 @@
         <v>140446</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>116855</v>
+        <v>119742</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>165181</v>
+        <v>165748</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1251392794780589</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.104119584395035</v>
+        <v>0.1066918877956998</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1471785344312879</v>
+        <v>0.1476835371655079</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>121688</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>100117</v>
+        <v>100492</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>143494</v>
+        <v>144130</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2439918966441388</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2007396512078568</v>
+        <v>0.2014917795576407</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2877142375221287</v>
+        <v>0.288989480288745</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>186</v>
@@ -904,19 +904,19 @@
         <v>144248</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>123906</v>
+        <v>126849</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>164311</v>
+        <v>166629</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2313216296931734</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1987012614547354</v>
+        <v>0.2034210833159136</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.263496180094015</v>
+        <v>0.2672135839364534</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>292</v>
@@ -925,19 +925,19 @@
         <v>265936</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>239747</v>
+        <v>239513</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>296664</v>
+        <v>296961</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2369520762495106</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.213616987367688</v>
+        <v>0.2134090917419381</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2643309714807766</v>
+        <v>0.2645960363882183</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>291262</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>266844</v>
+        <v>267432</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>315234</v>
+        <v>315585</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5839976712500614</v>
+        <v>0.5839976712500615</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5350374412986906</v>
+        <v>0.5362165619113943</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6320620616632324</v>
+        <v>0.6327655970409142</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>564</v>
@@ -975,19 +975,19 @@
         <v>389412</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>367024</v>
+        <v>363029</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>412353</v>
+        <v>409402</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6244780881316105</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5885751363087367</v>
+        <v>0.5821684429470503</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6612669230359353</v>
+        <v>0.6565351892875766</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>836</v>
@@ -996,19 +996,19 @@
         <v>680675</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>647181</v>
+        <v>650166</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>711941</v>
+        <v>717469</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6064892939955532</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5766454281924518</v>
+        <v>0.5793054958843996</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6343473402943804</v>
+        <v>0.6392729316448766</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>4326</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12427</v>
+        <v>11873</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.004506064001545155</v>
+        <v>0.004506064001545156</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001086738615388966</v>
+        <v>0.00107551458505474</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01294293118704433</v>
+        <v>0.01236605820820635</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1121,19 +1121,19 @@
         <v>4621</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1494</v>
+        <v>1954</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10027</v>
+        <v>10049</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.004141686394581491</v>
+        <v>0.00414168639458149</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001339222551725014</v>
+        <v>0.001751225444062828</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.008985715226118322</v>
+        <v>0.00900573973684282</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -1142,19 +1142,19 @@
         <v>8948</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4437</v>
+        <v>4141</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17338</v>
+        <v>17393</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.004310209836840006</v>
+        <v>0.004310209836840004</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002137337639327062</v>
+        <v>0.001994710227505857</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.00835166733746444</v>
+        <v>0.008378240999604677</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>49554</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37723</v>
+        <v>36752</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66065</v>
+        <v>66164</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05161186233673122</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03928875438729046</v>
+        <v>0.03827814476427761</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06880803613608175</v>
+        <v>0.06891068217990437</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -1192,19 +1192,19 @@
         <v>50835</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39028</v>
+        <v>39595</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64588</v>
+        <v>66031</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04555748672983229</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03497623178672443</v>
+        <v>0.03548376187283179</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05788243395814983</v>
+        <v>0.05917515986127572</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>116</v>
@@ -1213,19 +1213,19 @@
         <v>100390</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>80755</v>
+        <v>85458</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>119570</v>
+        <v>122616</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0483576154932399</v>
+        <v>0.04835761549323989</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03889939073455501</v>
+        <v>0.04116499867599707</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0575968883955178</v>
+        <v>0.05906390980087774</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>167211</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>140481</v>
+        <v>140112</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>194198</v>
+        <v>195368</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1741537708945254</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1463136499265311</v>
+        <v>0.1459295214058769</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2022612103722541</v>
+        <v>0.2034795232956769</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>220</v>
@@ -1263,19 +1263,19 @@
         <v>165820</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>147232</v>
+        <v>145841</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>190075</v>
+        <v>188059</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1486040952831365</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1319464955763168</v>
+        <v>0.1306994954134344</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1703408679764559</v>
+        <v>0.1685347825376241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>375</v>
@@ -1284,19 +1284,19 @@
         <v>333031</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>298973</v>
+        <v>300830</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>368621</v>
+        <v>371834</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.160420736043525</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1440149278260917</v>
+        <v>0.144909511862716</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1775644916662748</v>
+        <v>0.1791119629222978</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>739045</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>710215</v>
+        <v>707947</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>770823</v>
+        <v>767780</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7697283027671983</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7397016556213484</v>
+        <v>0.7373392130344389</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.802826530400375</v>
+        <v>0.7996570302085381</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1315</v>
@@ -1334,19 +1334,19 @@
         <v>894572</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>868886</v>
+        <v>871024</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>915600</v>
+        <v>917388</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8016967315924497</v>
+        <v>0.8016967315924496</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7786769794889021</v>
+        <v>0.7805930494958834</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8205410030085069</v>
+        <v>0.822143200506579</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2017</v>
@@ -1355,19 +1355,19 @@
         <v>1633617</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1595902</v>
+        <v>1594181</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1671643</v>
+        <v>1669419</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7869114386263951</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7687439274858</v>
+        <v>0.7679149424015898</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8052282144627155</v>
+        <v>0.804157201608085</v>
       </c>
     </row>
     <row r="13">
@@ -1506,19 +1506,19 @@
         <v>5854</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2065</v>
+        <v>2015</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12027</v>
+        <v>11564</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.005594380801894747</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001973137723807573</v>
+        <v>0.001925238868406617</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01149306834000385</v>
+        <v>0.01104992084148141</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -1527,19 +1527,19 @@
         <v>4363</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1556</v>
+        <v>1525</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10091</v>
+        <v>9487</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.00416454965251977</v>
+        <v>0.004164549652519771</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.001485398121220548</v>
+        <v>0.001455988198916296</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.009632468998102115</v>
+        <v>0.009055546204567621</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>11</v>
@@ -1548,19 +1548,19 @@
         <v>10217</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4912</v>
+        <v>5030</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16852</v>
+        <v>18339</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.004879068408039343</v>
+        <v>0.004879068408039344</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.002345712190746872</v>
+        <v>0.002401825144615339</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.008047344698206395</v>
+        <v>0.008757405427238074</v>
       </c>
     </row>
     <row r="16">
@@ -1577,19 +1577,19 @@
         <v>37785</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26833</v>
+        <v>25859</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53436</v>
+        <v>53287</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03610655851545137</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02564129768892593</v>
+        <v>0.02471078713540993</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05106308961387484</v>
+        <v>0.05092004132496413</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -1598,19 +1598,19 @@
         <v>49144</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37651</v>
+        <v>37728</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65462</v>
+        <v>64710</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04690954075838535</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03593924240833373</v>
+        <v>0.03601265967663463</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06248536022702723</v>
+        <v>0.0617673140652676</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>98</v>
@@ -1619,19 +1619,19 @@
         <v>86929</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>70125</v>
+        <v>69755</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>107153</v>
+        <v>106775</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04151104777444426</v>
+        <v>0.04151104777444425</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03348646040413469</v>
+        <v>0.03330994512681355</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05116837266792038</v>
+        <v>0.05098805665572336</v>
       </c>
     </row>
     <row r="17">
@@ -1648,19 +1648,19 @@
         <v>1002840</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>986538</v>
+        <v>988133</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1014634</v>
+        <v>1015885</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9582990606826538</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9427216443595839</v>
+        <v>0.9442451530563805</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9695698017848405</v>
+        <v>0.9707644023084151</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1450</v>
@@ -1669,19 +1669,19 @@
         <v>994135</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>976680</v>
+        <v>977968</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1005736</v>
+        <v>1006076</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9489259095890948</v>
+        <v>0.948925909589095</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9322653111034221</v>
+        <v>0.9334948774912586</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9599994409207547</v>
+        <v>0.9603238627733722</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2436</v>
@@ -1690,19 +1690,19 @@
         <v>1996974</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1976267</v>
+        <v>1974841</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2015492</v>
+        <v>2014845</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9536098838175163</v>
+        <v>0.9536098838175164</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9437216135648713</v>
+        <v>0.9430407603223425</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9624524246690627</v>
+        <v>0.9621437736333734</v>
       </c>
     </row>
     <row r="18">
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3570</v>
+        <v>3585</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0007748794159918519</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.003921338108136715</v>
+        <v>0.003938159117564542</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1831,16 +1831,16 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4032</v>
+        <v>3543</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0003739687479261607</v>
+        <v>0.0003739687479261606</v>
       </c>
       <c r="V19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002137417460670541</v>
+        <v>0.00187839931592979</v>
       </c>
     </row>
     <row r="20">
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5732</v>
+        <v>6550</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001187897072448358</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.005873175434390135</v>
+        <v>0.006711489737837391</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4137</v>
+        <v>3767</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0008219107362754983</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.004544011050117785</v>
+        <v>0.004137808294811176</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6520</v>
+        <v>6591</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001011266426347821</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.003456427740219604</v>
+        <v>0.003494276600386029</v>
       </c>
     </row>
     <row r="21">
@@ -1928,19 +1928,19 @@
         <v>5452</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13433</v>
+        <v>14184</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.005586109066224493</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001339136017434371</v>
+        <v>0.001334131057605734</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01376449924036775</v>
+        <v>0.01453404026142505</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -1949,19 +1949,19 @@
         <v>8430</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3693</v>
+        <v>4320</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16576</v>
+        <v>17073</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.009260690527189802</v>
+        <v>0.009260690527189801</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004057234597762978</v>
+        <v>0.004745280555048535</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01820823267900373</v>
+        <v>0.01875423190171861</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>13</v>
@@ -1970,19 +1970,19 @@
         <v>13882</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7916</v>
+        <v>7660</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>23952</v>
+        <v>24089</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.007359518708744058</v>
+        <v>0.007359518708744056</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004196497140730569</v>
+        <v>0.004060770087853552</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01269803034532614</v>
+        <v>0.01277092979592072</v>
       </c>
     </row>
     <row r="22">
@@ -1999,19 +1999,19 @@
         <v>969318</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>960468</v>
+        <v>960420</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>973617</v>
+        <v>973559</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9932259938613273</v>
+        <v>0.993225993861327</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9841581588081104</v>
+        <v>0.9841080556503436</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9976311733745626</v>
+        <v>0.9975717579443527</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1313</v>
@@ -2020,19 +2020,19 @@
         <v>900461</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>892107</v>
+        <v>891944</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>905743</v>
+        <v>905101</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.989142519320543</v>
+        <v>0.9891425193205429</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9799660943308167</v>
+        <v>0.9797864867685733</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.994945061451764</v>
+        <v>0.9942393988990228</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2255</v>
@@ -2041,19 +2041,19 @@
         <v>1869779</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1859561</v>
+        <v>1859473</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1876571</v>
+        <v>1876757</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9912552461169821</v>
+        <v>0.9912552461169819</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9858383787876318</v>
+        <v>0.9857913175825171</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9948557636841493</v>
+        <v>0.9949545492783824</v>
       </c>
     </row>
     <row r="23">
@@ -2145,19 +2145,19 @@
         <v>23530</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13879</v>
+        <v>14058</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36079</v>
+        <v>36149</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.006759006920298772</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003986836022641899</v>
+        <v>0.00403820282379545</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01036363978357706</v>
+        <v>0.01038392701088358</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>26</v>
@@ -2166,19 +2166,19 @@
         <v>21386</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13759</v>
+        <v>14207</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33019</v>
+        <v>32691</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.005784004365001316</v>
+        <v>0.005784004365001317</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.003721217209191907</v>
+        <v>0.003842376517019159</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.008930395445697225</v>
+        <v>0.008841592402173852</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>45</v>
@@ -2187,19 +2187,19 @@
         <v>44916</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>32665</v>
+        <v>32732</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>60342</v>
+        <v>62420</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.006256828265754136</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004550266711359813</v>
+        <v>0.004559613140982318</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.008405725899517618</v>
+        <v>0.008695183584427026</v>
       </c>
     </row>
     <row r="25">
@@ -2216,19 +2216,19 @@
         <v>123153</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>101560</v>
+        <v>102538</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>147206</v>
+        <v>149855</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03537571722957103</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02917313018073541</v>
+        <v>0.02945397901163985</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04228490066400181</v>
+        <v>0.04304583336812064</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>164</v>
@@ -2237,19 +2237,19 @@
         <v>129808</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>108485</v>
+        <v>110869</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>151638</v>
+        <v>153519</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03510774853693541</v>
+        <v>0.03510774853693542</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02934062667211275</v>
+        <v>0.02998549112420171</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04101191283189745</v>
+        <v>0.04152064619451216</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>282</v>
@@ -2258,19 +2258,19 @@
         <v>252961</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>223659</v>
+        <v>224889</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>286313</v>
+        <v>287693</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03523769896818629</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03115585282032778</v>
+        <v>0.0313272804186158</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03988372183061797</v>
+        <v>0.04007597747314962</v>
       </c>
     </row>
     <row r="26">
@@ -2287,19 +2287,19 @@
         <v>332136</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>294633</v>
+        <v>294940</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>371846</v>
+        <v>376621</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.09540622314813774</v>
+        <v>0.09540622314813775</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08463336291487192</v>
+        <v>0.08472171401589733</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1068128960771543</v>
+        <v>0.108184486799535</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>476</v>
@@ -2308,19 +2308,19 @@
         <v>367642</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>337185</v>
+        <v>338021</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>403962</v>
+        <v>407519</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.09943219345360163</v>
+        <v>0.09943219345360166</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09119465110478106</v>
+        <v>0.09142078498239302</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1092552557953623</v>
+        <v>0.110217121140245</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>778</v>
@@ -2329,19 +2329,19 @@
         <v>699778</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>648585</v>
+        <v>650140</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>758654</v>
+        <v>754063</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09747981397131021</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09034852800239847</v>
+        <v>0.09056515051989113</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1056812044119296</v>
+        <v>0.1050416691937081</v>
       </c>
     </row>
     <row r="27">
@@ -2358,19 +2358,19 @@
         <v>3002465</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2957889</v>
+        <v>2953789</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3049263</v>
+        <v>3044588</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8624590527019925</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8496545588536712</v>
+        <v>0.8484768399665467</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8759017412178647</v>
+        <v>0.8745588005957512</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4642</v>
@@ -2379,19 +2379,19 @@
         <v>3178580</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3135213</v>
+        <v>3136039</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3216730</v>
+        <v>3216429</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.8596760536444614</v>
+        <v>0.8596760536444616</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8479470289442631</v>
+        <v>0.8481704169639536</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8699941312769464</v>
+        <v>0.8699125414529053</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7544</v>
@@ -2400,19 +2400,19 @@
         <v>6181046</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6117240</v>
+        <v>6116202</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6238604</v>
+        <v>6233053</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.8610256587947493</v>
+        <v>0.8610256587947495</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8521374244168014</v>
+        <v>0.8519927965165077</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8690436086618166</v>
+        <v>0.8682702538882637</v>
       </c>
     </row>
     <row r="28">
